--- a/Datasets/AadharCard.xlsx
+++ b/Datasets/AadharCard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{019DF12E-CF13-4C2B-B486-5E677BFE51AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B62FCBC-370D-4E64-A5F6-408B7815933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,6 +1001,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
